--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="289">
   <si>
     <t>Abbrevation</t>
   </si>
@@ -302,39 +302,6 @@
     <t>90</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>AN</t>
   </si>
   <si>
@@ -413,10 +380,10 @@
     <t>Human-Like Design</t>
   </si>
   <si>
-    <t>Emotions</t>
-  </si>
-  <si>
-    <t>Carefulness</t>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Reliance and Trust</t>
   </si>
   <si>
     <t>Emotional Coldness</t>
@@ -425,22 +392,19 @@
     <t>Lack of Emotional Understanding</t>
   </si>
   <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Endurance</t>
-  </si>
-  <si>
-    <t>Complementary Role</t>
-  </si>
-  <si>
-    <t>Comfort</t>
+    <t>Sustained Performance</t>
+  </si>
+  <si>
+    <t>Collaborative Support</t>
+  </si>
+  <si>
+    <t>Emotional Resilience</t>
   </si>
   <si>
     <t>Durability</t>
   </si>
   <si>
-    <t>Technical Limitation</t>
+    <t>Technical Issues</t>
   </si>
   <si>
     <t>Potential Misuse</t>
@@ -452,132 +416,117 @@
     <t>Safety</t>
   </si>
   <si>
-    <t>Precision</t>
+    <t>Objective Concerns</t>
+  </si>
+  <si>
+    <t>Potential Physical Harm</t>
+  </si>
+  <si>
+    <t>Misidentification</t>
+  </si>
+  <si>
+    <t>Objective Threats</t>
+  </si>
+  <si>
+    <t>Unpredictability</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Replaceability</t>
+  </si>
+  <si>
+    <t>Operational Efficiency</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Focus on Task</t>
+  </si>
+  <si>
+    <t>Search Capabilities</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Physical Capabilities</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Delivery of Goods</t>
+  </si>
+  <si>
+    <t>Operational Capability</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Robot Runtime</t>
+  </si>
+  <si>
+    <t>Operational Delay</t>
+  </si>
+  <si>
+    <t>Movement</t>
   </si>
   <si>
     <t>Perceived Risk</t>
   </si>
   <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Potential Harm to Victims</t>
-  </si>
-  <si>
-    <t>Unintended Actions</t>
-  </si>
-  <si>
-    <t>Error Development</t>
-  </si>
-  <si>
-    <t>Misidentification</t>
-  </si>
-  <si>
-    <t>Potential Risk</t>
-  </si>
-  <si>
-    <t>Unpredictability</t>
-  </si>
-  <si>
-    <t>Design Limitation</t>
-  </si>
-  <si>
-    <t>Benefit</t>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Operational Mechanism</t>
+  </si>
+  <si>
+    <t>Pattern Recognition</t>
+  </si>
+  <si>
+    <t>Limited Autonomy</t>
+  </si>
+  <si>
+    <t>Faulty Analyses</t>
+  </si>
+  <si>
+    <t>Speed Comparison</t>
+  </si>
+  <si>
+    <t>Damage not Excludable</t>
+  </si>
+  <si>
+    <t>Error Risk</t>
+  </si>
+  <si>
+    <t>Immature Technology</t>
+  </si>
+  <si>
+    <t>Limited Flexibility</t>
+  </si>
+  <si>
+    <t>Night Vision</t>
+  </si>
+  <si>
+    <t>Enhanced Capabilities</t>
   </si>
   <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Replaceability</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Focus on Task</t>
-  </si>
-  <si>
-    <t>Search Capabilities</t>
-  </si>
-  <si>
-    <t>Operational Capability</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Physical Capabilities</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>Replaceable</t>
-  </si>
-  <si>
-    <t>Delivery of Goods</t>
-  </si>
-  <si>
-    <t>Operational Efficiency</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Risk Reduction</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Robot Runtime</t>
-  </si>
-  <si>
-    <t>Operational Delay</t>
-  </si>
-  <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t>Specialization</t>
-  </si>
-  <si>
-    <t>Operational Mechanism</t>
-  </si>
-  <si>
-    <t>Pattern Recognition</t>
-  </si>
-  <si>
-    <t>Limited Autonomy</t>
-  </si>
-  <si>
-    <t>Faulty Analyses</t>
-  </si>
-  <si>
-    <t>Speed Comparison</t>
-  </si>
-  <si>
-    <t>Damage not Excludable</t>
-  </si>
-  <si>
-    <t>Error Risk</t>
-  </si>
-  <si>
-    <t>Immature Technology</t>
-  </si>
-  <si>
-    <t>Limited Flexibility</t>
-  </si>
-  <si>
-    <t>Night Vision</t>
-  </si>
-  <si>
-    <t>Enhanced Capabilities</t>
-  </si>
-  <si>
     <t>Information Generation</t>
   </si>
   <si>
@@ -692,7 +641,7 @@
     <t>Identifies instances where participants value rescue robots designed with human-like or natural qualities, promoting emotional engagement, familiarity, and trust in their interactions.</t>
   </si>
   <si>
-    <t>Captures instances where participants express concerns about the lack of emotional understanding, including fear and discomfort caused by emotionally detached robots in the context of Human-Robot-Interaction of rescue robots.</t>
+    <t>Captures instances where participants express concerns about the lack of emotional understanding, empathy, and the fear or discomfort caused by emotionally detached robots in rescue scenarios.</t>
   </si>
   <si>
     <t>Identifies instances where participants express concerns or expectations for rescue robots to exhibit caution and precision in their actions to prevent harm during emergency situations, and address the emotional needs of victims during rescue operations.</t>
@@ -701,58 +650,43 @@
     <t>Identifies instances where participants express a preference for human interaction over emotionally detached or robotic interactions in emergency scenarios, highlighting concerns about the perceived emotional coldness of rescue robots.</t>
   </si>
   <si>
-    <t>Identifies instances where participants express frustration or disappointment with robots' inability to recognize or respond to emotional cues, such as lacking empathy or understanding of human emotions. This also includes concerns about the robot's inability to recognize distress, fear, or pain, and its failure to show compassion or empathy in human-robot interactions.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express emotional reassurance and optimism, emphasizing the belief that rescue robots provide hope to victims through their presence or potential impact.</t>
-  </si>
-  <si>
-    <t>Highlights physical and mental stamina in human-robot interaction, focusing on participants' discussions about sustaining performance or functionality during prolonged interactions with rescue robots.</t>
-  </si>
-  <si>
-    <t>Identifies instances where rescue robots provide tangible support in rescue scenarios, including delivering essential resources, while complementing human actions and tasks, enhancing capabilities through collaboration.</t>
-  </si>
-  <si>
-    <t>Captures instances where the soft design, adaptable forms, or non-mechanical appearance of rescue robots provide emotional reassurance and calm to victims in distress.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, as well as material and production defects.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns or frustrations related to the constraints or drawbacks of technical capabilities in rescue robots, such as limited senses, orientation, and navigation. These limitations may hinder the ability of rescue robots to navigate through complex environments or perform delicate tasks, raising concerns about their effectiveness in critical situations.</t>
+    <t>Identifies instances where participants express frustration or disappointment with robots' inability to recognize, respond to distress or fear, or show compassion and empathy. This also encompasses concerns about emotional detachment and the absence of human-like emotional depth.</t>
+  </si>
+  <si>
+    <t>Highlights physical and mental stamina in Human-Robot-Interaction, focusing on the importance of sustaining performance and functionality during prolonged rescue operations, without unnecessary details or quotes.</t>
+  </si>
+  <si>
+    <t>Identifies instances where rescue robots provide tangible support in rescue scenarios, including the delivery of essential resources and enhancing human capabilities through collaboration and support, rather than replacement.</t>
+  </si>
+  <si>
+    <t>Focuses on emotional reassurance provided by rescue robots through their soft design, adaptable forms, or demeanor, emphasizing their ability to offer calm and optimism to victims in distress.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, including concerns about material and production defects.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants express concerns or frustrations related to the constraints or drawbacks of technical capabilities in rescue robots. This includes issues with limited senses, orientation, navigation, loss of control, and situations where autonomous systems fail to behave predictably due to software errors, as well as the inability to navigate complex environments or perform delicate tasks effectively.</t>
   </si>
   <si>
     <t>Identifies instances where the responsibility associated with controlling rescue robots is highlighted as having the potential for misuse.</t>
   </si>
   <si>
-    <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, highlighting potential limitations in their performance under exceptional circumstances.</t>
-  </si>
-  <si>
-    <t>Identifies concerns related to the safety implications of using rescue robots, highlighting potential risks and negative outcomes associated with their deployment in emergency situations, including endangerment of human lives.</t>
-  </si>
-  <si>
-    <t>Identifies references to the level of accuracy or exactness associated with soft rescue robots in contrast to hard rescue robots in the context of perceived risks and benefits of rescue robots.</t>
-  </si>
-  <si>
-    <t>Identifies concerns expressed by participants regarding the potential negative outcomes associated with rescue robots, such as lack of sensitivity leading to exacerbation of situations like collapses.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express uncertainty or lack of trust in the dependability of rescue robots. This includes loss of control, autonomous systems failing to behave predictably, and software errors leading to critical failures.</t>
-  </si>
-  <si>
-    <t>Identifies concerns related to the possibility of harm to individuals caused by technical malfunctions in rescue robots, such as potential risks of injury or even fatality.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express concerns about potential harm caused by rescue robots due to unintended actions, such as malfunctions leading to accidental harm, fatalities, or absence of moral decision-making.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about potential software errors in rescue robots, including issues related to error detection, program disturbances, and their impact on emergency operations.</t>
-  </si>
-  <si>
-    <t>Identifies instances where errors in sensor settings or failures in detecting victims accurately may result in areas being mistakenly cleared of victims, potentially endangering survivors in rescue operations.</t>
-  </si>
-  <si>
-    <t>Identifies concerns expressed about the susceptibility of rescue robots to hacking, highlighting a potential risk in their deployment for rescue operations.</t>
+    <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, incorporating considerations about precision and limitations in performance under exceptional circumstances.</t>
+  </si>
+  <si>
+    <t>Identifies concerns related to the safety implications of using rescue robots, highlighting potential risks and negative outcomes associated with their deployment in emergency situations, including the endangerment of human lives.</t>
+  </si>
+  <si>
+    <t>Highlights concerns expressed by participants regarding the potential negative outcomes associated with rescue robots, emphasizing emotional or subjective perceptions rather than concrete risks.</t>
+  </si>
+  <si>
+    <t>Identifies concerns related to the possibility of harm to individuals caused by technical malfunctions or unintended actions in rescue robots, such as malfunctions leading to accidental harm, injury, or even fatalities.</t>
+  </si>
+  <si>
+    <t>Identifies instances where errors in sensor settings may result in areas being mistakenly cleared of victims, potentially leading to critical misidentification of survivors in rescue operations, including scenarios where sensors fail to detect victims accurately.</t>
+  </si>
+  <si>
+    <t>Identifies concerns expressed about the susceptibility of rescue robots to hacking, emphasizing identifiable, factual dangers or vulnerabilities that could occur in real-world scenarios.</t>
   </si>
   <si>
     <t>Identifies instances where participants highlight the challenges and limitations associated with the unpredictable nature of rescue scenarios, emphasizing the need for adaptability and flexibility in rescue robot design and operation.</t>
@@ -761,61 +695,43 @@
     <t>Addresses physical and structural considerations, such as weaknesses in soft robots or design flaws impacting resilience and performance.</t>
   </si>
   <si>
-    <t>Highlights the advantages of using rescue robots, such as reducing the need for human presence in hazardous conditions, thereby improving overall safety.</t>
-  </si>
-  <si>
-    <t>Emphasizes the role of rescue robots in reducing risks and protecting humans from harm, including minimizing human errors during rescue operations and enhancing safety through hazard-detecting sensors.</t>
-  </si>
-  <si>
-    <t>Focuses on the importance of rapid response and swift operations in rescue scenarios, highlighting the ability of robots to enhance efficiency and productivity in hazardous situations.</t>
-  </si>
-  <si>
-    <t>Describes the capability of rescue robots to access remote or hard-to-reach locations quickly, enabling faster response times and potentially saving lives.</t>
-  </si>
-  <si>
-    <t>Highlights the ease of replacing rescue robots in operations, emphasizing that material loss is less significant than human loss and alleviating concerns about their safety.</t>
-  </si>
-  <si>
-    <t>Describes the physical superiority of rescue robots, including their ability to lift heavy objects and demonstrate strength beyond human capacity, particularly in challenging environments.</t>
-  </si>
-  <si>
-    <t>Underscores the consistent performance and precise control of rescue robots, emphasizing their dependability during critical rescue operations.</t>
-  </si>
-  <si>
-    <t>Highlights the efficiency and effectiveness of rescue robots in performing tasks without emotional interference, ensuring successful rescue operations.</t>
-  </si>
-  <si>
-    <t>Details the advanced sensor technology of rescue robots that enables them to conduct searches in challenging conditions like darkness or smoke.</t>
-  </si>
-  <si>
-    <t>Defines the ability of rescue robots to improve operational performance by enhancing response speed and effectiveness in emergencies.</t>
-  </si>
-  <si>
-    <t>Describes the ability of rescue robots to function effectively in hazardous environments, demonstrating adaptability and unrestricted functionality.</t>
-  </si>
-  <si>
-    <t>Highlights the advantages of using automation in rescue operations to simplify complex or challenging scenarios.</t>
-  </si>
-  <si>
-    <t>Focuses on the ability of rescue robots to perform physical tasks beyond human capabilities, especially in environments where human performance is limited.</t>
-  </si>
-  <si>
-    <t>Highlights the advantage of rescue robots in accessing tight or narrow spaces, showcasing their adaptability and potential to enhance safety.</t>
-  </si>
-  <si>
-    <t>Discusses the ease of substituting rescue robots in case of damage or loss, emphasizing their interchangeability.</t>
-  </si>
-  <si>
-    <t>Explores the potential of rescue robots to deliver goods in hazardous environments like war zones, balancing safety benefits and risks.</t>
-  </si>
-  <si>
-    <t>Highlights the consistent performance of rescue robots in maintaining operational efficiency, surpassing human limitations during rescue missions.</t>
-  </si>
-  <si>
-    <t>References the need for specialized equipment in certain hazardous environments, such as gas masks, when using rescue robots.</t>
-  </si>
-  <si>
-    <t>Captures the role of rescue robots in minimizing risks for both victims and rescuers, reducing exposure to dangerous conditions.</t>
+    <t>Highlights the physical superiority of rescue robots, including their ability to lift heavy objects, navigate difficult terrains, and demonstrate strength beyond human capacity.</t>
+  </si>
+  <si>
+    <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
+  </si>
+  <si>
+    <t>Describes the ease of substituting rescue robots during operations, highlighting that material loss is less significant than human loss, reducing concerns over the robot's safety.</t>
+  </si>
+  <si>
+    <t>Emphasizes rescue robots' ability to improve overall performance, reduce response times, and minimize risks to victims and rescuers through quicker and safer interventions, incorporating the importance of speed and operational efficiency.</t>
+  </si>
+  <si>
+    <t>Focuses on the enhanced ability of rescue robots to access remote or hard-to-reach locations, enabling quicker response times and potentially saving lives.</t>
+  </si>
+  <si>
+    <t>References environments requiring specialized equipment for breathing, such as gas masks, and how rescue robots enhance safety in such conditions.</t>
+  </si>
+  <si>
+    <t>Highlights rescue robots' efficiency and effectiveness in completing tasks without emotional interference, enhancing performance and reliability in rescue missions.</t>
+  </si>
+  <si>
+    <t>Discusses the advanced ability of rescue robots to conduct searches in challenging environments using sensor technology, allowing effective operation in dark or smoke-filled areas.</t>
+  </si>
+  <si>
+    <t>Highlights the advantages of automation in simplifying complex or challenging scenarios, emphasizing the reliability and adaptability of rescue robots in hazardous conditions.</t>
+  </si>
+  <si>
+    <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
+  </si>
+  <si>
+    <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
+  </si>
+  <si>
+    <t>Highlights the potential use of rescue robots for delivering goods in hazardous environments, like war zones, emphasizing the safety benefits.</t>
+  </si>
+  <si>
+    <t>Discusses the ability of rescue robots to function effectively in hazardous environments, showcasing their operational adaptability and reliable performance.</t>
   </si>
   <si>
     <t>Identifies concerns related to potential errors in algorithms used by rescue robots, highlighting the associated risks in rescue operations.</t>
@@ -1039,16 +955,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F2" t="n">
         <v>11.0</v>
@@ -1062,19 +978,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1085,19 +1001,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -1108,19 +1024,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1131,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
@@ -1154,16 +1070,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F7" t="n">
         <v>7.0</v>
@@ -1177,19 +1093,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1200,19 +1116,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1223,19 +1139,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -1246,16 +1162,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1265,19 +1181,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F12" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
@@ -1288,19 +1204,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
@@ -1311,22 +1227,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F14" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1334,22 +1250,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1357,16 +1273,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1376,41 +1292,45 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
+        <v>214</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F18" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1418,22 +1338,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="20">
@@ -1441,22 +1361,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F20" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G20" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1464,22 +1384,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F21" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1487,22 +1407,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F22" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -1510,22 +1430,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F23" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -1533,41 +1453,45 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24"/>
+        <v>221</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F25" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -1575,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F26" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1598,41 +1522,45 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
+        <v>224</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1640,22 +1568,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30">
@@ -1663,22 +1591,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F30" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -1686,41 +1614,45 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31"/>
+        <v>228</v>
+      </c>
+      <c r="F31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F32" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1728,22 +1660,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>38.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -1751,22 +1683,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G34" t="n">
         <v>6.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -1774,22 +1706,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F35" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1797,22 +1729,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F36" t="n">
-        <v>67.0</v>
+        <v>10.0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -1820,22 +1752,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F37" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -1843,22 +1775,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F38" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1866,22 +1798,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -1889,22 +1821,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F40" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1912,22 +1844,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F41" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="42">
@@ -1935,22 +1867,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F42" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1958,22 +1890,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F43" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1981,22 +1913,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F44" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -2004,22 +1936,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F45" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -2027,22 +1959,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2050,22 +1982,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F47" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -2073,22 +2005,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F48" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -2096,22 +2028,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
@@ -2119,22 +2051,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F50" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -2142,19 +2074,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F51" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -2165,19 +2097,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F52" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -2188,22 +2120,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E53" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F53" t="n">
-        <v>31.0</v>
+        <v>4.0</v>
       </c>
       <c r="G53" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -2211,22 +2143,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F54" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="G54" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="55">
@@ -2234,19 +2166,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E55" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F55" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="G55" t="n">
         <v>1.0</v>
@@ -2257,22 +2189,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F56" t="n">
         <v>6.0</v>
       </c>
       <c r="G56" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -2280,22 +2212,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F57" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G57" t="n">
         <v>3.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -2303,22 +2235,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F58" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -2326,22 +2258,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F59" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="G59" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -2349,22 +2281,22 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F60" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="G60" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -2372,19 +2304,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F61" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -2395,19 +2327,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F62" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G62" t="n">
         <v>1.0</v>
@@ -2418,22 +2350,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F63" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G63" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
@@ -2441,22 +2373,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F64" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -2464,22 +2396,22 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E65" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F65" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="G65" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -2487,22 +2419,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F66" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -2510,22 +2442,22 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F67" t="n">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
@@ -2533,22 +2465,22 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E68" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F68" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G68" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -2556,22 +2488,22 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F69" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -2579,22 +2511,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F70" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -2602,22 +2534,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F71" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -2625,22 +2557,22 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F72" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -2648,45 +2580,41 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>287</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.0</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F74" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G74" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -2694,22 +2622,22 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F75" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -2717,22 +2645,22 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E76" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="F76" t="n">
         <v>11.0</v>
       </c>
       <c r="G76" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -2740,22 +2668,22 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E77" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G77" t="n">
         <v>3.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -2763,22 +2691,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F78" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="G78" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -2786,22 +2714,22 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F79" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="G79" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -2809,22 +2737,22 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F80" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="G80" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -2832,45 +2760,41 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>295</v>
-      </c>
-      <c r="F81" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F82" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -2878,19 +2802,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F83" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G83" t="n">
         <v>1.0</v>
@@ -2901,22 +2825,22 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F84" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="85">
@@ -2924,19 +2848,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E85" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F85" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>0.0</v>
@@ -2947,22 +2871,22 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E86" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -2970,19 +2894,19 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E87" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F87" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="G87" t="n">
         <v>0.0</v>
@@ -2993,22 +2917,22 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E88" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F88" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="G88" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
@@ -3016,22 +2940,22 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E89" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F89" t="n">
         <v>7.0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -3039,22 +2963,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E90" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F90" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -3062,274 +2986,21 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E91" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F91" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F92" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" t="s">
-        <v>208</v>
-      </c>
-      <c r="E93" t="s">
-        <v>307</v>
-      </c>
-      <c r="F93" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" t="s">
-        <v>160</v>
-      </c>
-      <c r="E94" t="s">
-        <v>308</v>
-      </c>
-      <c r="F94" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" t="s">
-        <v>166</v>
-      </c>
-      <c r="E95" t="s">
-        <v>309</v>
-      </c>
-      <c r="F95" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" t="s">
-        <v>209</v>
-      </c>
-      <c r="E96" t="s">
-        <v>310</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" t="s">
-        <v>311</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" t="s">
-        <v>312</v>
-      </c>
-      <c r="F98" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" t="s">
-        <v>212</v>
-      </c>
-      <c r="E99" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" t="s">
-        <v>314</v>
-      </c>
-      <c r="F100" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" t="s">
-        <v>315</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" t="s">
-        <v>215</v>
-      </c>
-      <c r="E102" t="s">
-        <v>316</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G102" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
@@ -410,11 +410,8 @@
           <t>Identifies instances where participants express concerns about the absence of emotional understanding or compassion in rescue robots, including the lack of human closeness. Participants noted that the absence of empathy could hinder the robots' effectiveness in providing emotional support, impacting the quality of care and human-robot relationships in rescue scenarios.</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>11</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -438,11 +435,8 @@
           <t>Captures instances where participants discuss the absence of human involvement in interactions with artificial intelligence, emphasizing the reliance on AI systems and the lack of human intervention in decision-making processes.</t>
         </is>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -466,12 +460,6 @@
           <t>Identifies instances where participants express discomfort or unease towards rescue robots due to their human-like characteristics, including their imitation of nature, intimidating appearance, and how these traits might evoke feelings of unease.</t>
         </is>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -494,11 +482,8 @@
           <t>Identifies instances where the concept of autonomy is viewed as conflicting with the objectives of rescue missions, highlighting challenges between independent decision-making and the structured requirements of rescue operations. Participants expressed concerns about the lack of alignment between the robots' capabilities and the specific needs of complex scenarios.</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -550,11 +535,8 @@
           <t>Identifies concerns regarding the absence of human reasoning and intuition in rescue robots, emphasizing the limitations of robotic decision-making compared to human judgment.</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -578,11 +560,8 @@
           <t>Identifies instances where participants discuss how the absence of emotional depth in rescue robots allows them to handle emotionally charged situations with logic and consistency, which can be seen as a positive trait in high-stress rescue scenarios.</t>
         </is>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -606,11 +585,8 @@
           <t>Identifies instances where participants highlight the operational effectiveness and productivity achieved through the autonomous functioning of rescue robots, emphasizing their ability to perform tasks quickly and without fatigue.</t>
         </is>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -634,11 +610,8 @@
           <t>Identifies instances where participants discuss the potential advantages of rescue robots making autonomous decisions, emphasizing the benefits of logic over human emotions and biases in critical situations.</t>
         </is>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
       <c r="F10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -684,11 +657,8 @@
           <t>Captures instances where participants express concerns about the lack of emotional understanding, empathy, and the fear or discomfort caused by emotionally detached robots in rescue scenarios.</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -712,11 +682,8 @@
           <t>Identifies instances where participants express concerns or expectations for rescue robots to exhibit caution and precision in their actions to prevent harm during emergency situations, and address the emotional needs of victims during rescue operations.</t>
         </is>
       </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
       <c r="F13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -741,10 +708,10 @@
         </is>
       </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>4</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -769,10 +736,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -819,10 +786,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -875,10 +842,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -903,10 +870,10 @@
         </is>
       </c>
       <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
         <v>11</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -931,10 +898,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -959,10 +926,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -987,10 +954,10 @@
         </is>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1015,10 +982,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1043,10 +1010,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1070,11 +1037,8 @@
           <t>Identifies instances where errors in sensor settings may result in areas being mistakenly cleared of victims, potentially leading to critical misidentification of survivors in rescue operations, including scenarios where sensors fail to detect victims accurately.</t>
         </is>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
       <c r="F26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1102,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1126,11 +1090,8 @@
           <t>Identifies instances where participants highlight the challenges and limitations associated with the unpredictable nature of rescue scenarios, emphasizing the need for adaptability and flexibility in rescue robot design and operation.</t>
         </is>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1155,10 +1116,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1183,10 +1144,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1211,10 +1172,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1239,10 +1200,10 @@
         </is>
       </c>
       <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
         <v>11</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1267,10 +1228,10 @@
         </is>
       </c>
       <c r="E33">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1295,10 +1256,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1326,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1354,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1379,10 +1340,10 @@
         </is>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1406,11 +1367,8 @@
           <t>Highlights the advantages of automation in simplifying complex or challenging scenarios, emphasizing the reliability and adaptability of rescue robots in hazardous conditions.</t>
         </is>
       </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
       <c r="F38">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1435,10 +1393,10 @@
         </is>
       </c>
       <c r="E39">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1463,10 +1421,10 @@
         </is>
       </c>
       <c r="E40">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1494,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1519,10 +1477,10 @@
         </is>
       </c>
       <c r="E42">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1547,7 +1505,7 @@
         </is>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1575,7 +1533,7 @@
         </is>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -1602,11 +1560,8 @@
           <t>Identifies concerns and questions related to potential delays in the operational capabilities of rescue robots, particularly focusing on issues such as battery life, recharging times, and energy management.</t>
         </is>
       </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1630,11 +1585,8 @@
           <t>Identifies references in the data where participants express concerns or observations about the restricted mobility or range of motion of rescue robots, potentially impacting their effectiveness in emergency situations.</t>
         </is>
       </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1659,10 +1611,10 @@
         </is>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1690,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1715,10 +1667,10 @@
         </is>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1742,12 +1694,6 @@
           <t>Identifies instances where individuals express concerns or observations about the limitations of rescue robots in recognizing patterns, potentially impacting their effectiveness in locating victims during emergencies.</t>
         </is>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1771,10 +1717,10 @@
         </is>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1798,11 +1744,8 @@
           <t>Identifies instances where participants express concerns about potential errors or inaccuracies in the analysis performed by rescue robots due to reliance on recognition software. Highlights the need for human oversight to prevent errors, emphasizing the importance of human judgment in critical situations.</t>
         </is>
       </c>
-      <c r="E52">
-        <v>16</v>
-      </c>
       <c r="F52">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1826,11 +1769,8 @@
           <t>Identifies instances where participants compare the speed of robots unfavorably to human capabilities, highlighting concerns about efficiency and performance in rescue robot technology.</t>
         </is>
       </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
       <c r="F53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1855,10 +1795,10 @@
         </is>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1883,10 +1823,10 @@
         </is>
       </c>
       <c r="E55">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1911,10 +1851,10 @@
         </is>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1939,10 +1879,10 @@
         </is>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1967,10 +1907,10 @@
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1995,10 +1935,10 @@
         </is>
       </c>
       <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
         <v>2</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2026,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2051,10 +1991,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -2079,10 +2019,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2107,10 +2047,10 @@
         </is>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2135,10 +2075,10 @@
         </is>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2163,10 +2103,10 @@
         </is>
       </c>
       <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
         <v>6</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2191,10 +2131,10 @@
         </is>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2219,10 +2159,10 @@
         </is>
       </c>
       <c r="E67">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F67">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -2247,10 +2187,10 @@
         </is>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2275,10 +2215,10 @@
         </is>
       </c>
       <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
         <v>11</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2306,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2331,10 +2271,10 @@
         </is>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -2350,7 +2290,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>a Robot's Continuous Operation</t>
+          <t>Continuous Operation</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2359,10 +2299,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -2386,6 +2326,12 @@
           <t>Identifies references to the potential use of smaller robots for mine clearance in scenarios like spill response within the context of discussing the benefits and risks of rescue robots' technological capabilities.</t>
         </is>
       </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2409,10 +2355,10 @@
         </is>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2437,10 +2383,10 @@
         </is>
       </c>
       <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
         <v>2</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2465,10 +2411,10 @@
         </is>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -2493,10 +2439,10 @@
         </is>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2521,10 +2467,10 @@
         </is>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -2549,10 +2495,10 @@
         </is>
       </c>
       <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
         <v>4</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2577,10 +2523,10 @@
         </is>
       </c>
       <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
         <v>4</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2604,6 +2550,12 @@
           <t>Identifies references to the capacity of rescue robots to gather and utilize extensive information beyond human capabilities, including mapping and geolocation tasks, within the context of exploring the perceived technological possibilities of rescue robots in terms of benefits and risks.</t>
         </is>
       </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2630,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -2683,10 +2635,10 @@
         </is>
       </c>
       <c r="E84">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -2711,10 +2663,10 @@
         </is>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2739,10 +2691,10 @@
         </is>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -2770,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2795,7 +2747,7 @@
         </is>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -2823,10 +2775,10 @@
         </is>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -2851,10 +2803,10 @@
         </is>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2879,10 +2831,10 @@
         </is>
       </c>
       <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
         <v>3</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
@@ -410,6 +410,9 @@
           <t>Identifies instances where participants express concerns about the absence of emotional understanding or compassion in rescue robots, including the lack of human closeness. Participants noted that the absence of empathy could hinder the robots' effectiveness in providing emotional support, impacting the quality of care and human-robot relationships in rescue scenarios.</t>
         </is>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>11</v>
       </c>
@@ -435,6 +438,9 @@
           <t>Captures instances where participants discuss the absence of human involvement in interactions with artificial intelligence, emphasizing the reliance on AI systems and the lack of human intervention in decision-making processes.</t>
         </is>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>3</v>
       </c>
@@ -482,6 +488,9 @@
           <t>Identifies instances where the concept of autonomy is viewed as conflicting with the objectives of rescue missions, highlighting challenges between independent decision-making and the structured requirements of rescue operations. Participants expressed concerns about the lack of alignment between the robots' capabilities and the specific needs of complex scenarios.</t>
         </is>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>2</v>
       </c>
@@ -508,7 +517,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -535,6 +544,9 @@
           <t>Identifies concerns regarding the absence of human reasoning and intuition in rescue robots, emphasizing the limitations of robotic decision-making compared to human judgment.</t>
         </is>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>7</v>
       </c>
@@ -560,6 +572,9 @@
           <t>Identifies instances where participants discuss how the absence of emotional depth in rescue robots allows them to handle emotionally charged situations with logic and consistency, which can be seen as a positive trait in high-stress rescue scenarios.</t>
         </is>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>5</v>
       </c>
@@ -585,6 +600,9 @@
           <t>Identifies instances where participants highlight the operational effectiveness and productivity achieved through the autonomous functioning of rescue robots, emphasizing their ability to perform tasks quickly and without fatigue.</t>
         </is>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>4</v>
       </c>
@@ -610,6 +628,9 @@
           <t>Identifies instances where participants discuss the potential advantages of rescue robots making autonomous decisions, emphasizing the benefits of logic over human emotions and biases in critical situations.</t>
         </is>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10">
         <v>6</v>
       </c>
@@ -657,6 +678,9 @@
           <t>Captures instances where participants express concerns about the lack of emotional understanding, empathy, and the fear or discomfort caused by emotionally detached robots in rescue scenarios.</t>
         </is>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="F12">
         <v>7</v>
       </c>
@@ -682,6 +706,9 @@
           <t>Identifies instances where participants express concerns or expectations for rescue robots to exhibit caution and precision in their actions to prevent harm during emergency situations, and address the emotional needs of victims during rescue operations.</t>
         </is>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>7</v>
       </c>
@@ -708,7 +735,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -736,7 +763,7 @@
         </is>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -786,7 +813,7 @@
         </is>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -814,7 +841,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -842,7 +869,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -870,7 +897,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -898,7 +925,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -926,7 +953,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -954,7 +981,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -982,7 +1009,7 @@
         </is>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1010,7 +1037,7 @@
         </is>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>9</v>
@@ -1037,6 +1064,9 @@
           <t>Identifies instances where errors in sensor settings may result in areas being mistakenly cleared of victims, potentially leading to critical misidentification of survivors in rescue operations, including scenarios where sensors fail to detect victims accurately.</t>
         </is>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
       <c r="F26">
         <v>4</v>
       </c>
@@ -1063,7 +1093,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1090,6 +1120,9 @@
           <t>Identifies instances where participants highlight the challenges and limitations associated with the unpredictable nature of rescue scenarios, emphasizing the need for adaptability and flexibility in rescue robot design and operation.</t>
         </is>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>3</v>
       </c>
@@ -1116,7 +1149,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1144,7 +1177,7 @@
         </is>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>14</v>
@@ -1172,7 +1205,7 @@
         </is>
       </c>
       <c r="E31">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>31</v>
@@ -1200,7 +1233,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -1228,7 +1261,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>30</v>
@@ -1256,7 +1289,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -1284,7 +1317,7 @@
         </is>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -1312,7 +1345,7 @@
         </is>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -1340,7 +1373,7 @@
         </is>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>12</v>
@@ -1367,6 +1400,9 @@
           <t>Highlights the advantages of automation in simplifying complex or challenging scenarios, emphasizing the reliability and adaptability of rescue robots in hazardous conditions.</t>
         </is>
       </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
       <c r="F38">
         <v>11</v>
       </c>
@@ -1393,7 +1429,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>22</v>
@@ -1421,7 +1457,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>21</v>
@@ -1449,7 +1485,7 @@
         </is>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -1477,7 +1513,7 @@
         </is>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>23</v>
@@ -1505,7 +1541,7 @@
         </is>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1533,7 +1569,7 @@
         </is>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -1560,6 +1596,9 @@
           <t>Identifies concerns and questions related to potential delays in the operational capabilities of rescue robots, particularly focusing on issues such as battery life, recharging times, and energy management.</t>
         </is>
       </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
       <c r="F45">
         <v>2</v>
       </c>
@@ -1585,6 +1624,9 @@
           <t>Identifies references in the data where participants express concerns or observations about the restricted mobility or range of motion of rescue robots, potentially impacting their effectiveness in emergency situations.</t>
         </is>
       </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
       <c r="F46">
         <v>2</v>
       </c>
@@ -1611,7 +1653,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <v>16</v>
@@ -1639,7 +1681,7 @@
         </is>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -1667,7 +1709,7 @@
         </is>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -1717,7 +1759,7 @@
         </is>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -1744,6 +1786,9 @@
           <t>Identifies instances where participants express concerns about potential errors or inaccuracies in the analysis performed by rescue robots due to reliance on recognition software. Highlights the need for human oversight to prevent errors, emphasizing the importance of human judgment in critical situations.</t>
         </is>
       </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
       <c r="F52">
         <v>10</v>
       </c>
@@ -1769,6 +1814,9 @@
           <t>Identifies instances where participants compare the speed of robots unfavorably to human capabilities, highlighting concerns about efficiency and performance in rescue robot technology.</t>
         </is>
       </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
       <c r="F53">
         <v>2</v>
       </c>
@@ -1795,7 +1843,7 @@
         </is>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -1823,7 +1871,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>12</v>
@@ -1851,7 +1899,7 @@
         </is>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -1879,7 +1927,7 @@
         </is>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1907,7 +1955,7 @@
         </is>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -1935,7 +1983,7 @@
         </is>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -1963,7 +2011,7 @@
         </is>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -1991,7 +2039,7 @@
         </is>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>9</v>
@@ -2019,7 +2067,7 @@
         </is>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -2047,7 +2095,7 @@
         </is>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>5</v>
@@ -2075,7 +2123,7 @@
         </is>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -2103,7 +2151,7 @@
         </is>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -2131,7 +2179,7 @@
         </is>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -2159,7 +2207,7 @@
         </is>
       </c>
       <c r="E67">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -2187,7 +2235,7 @@
         </is>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -2215,7 +2263,7 @@
         </is>
       </c>
       <c r="E69">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F69">
         <v>11</v>
@@ -2243,7 +2291,7 @@
         </is>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>3</v>
@@ -2271,7 +2319,7 @@
         </is>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -2299,7 +2347,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>9</v>
@@ -2327,7 +2375,7 @@
         </is>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>3</v>
@@ -2355,7 +2403,7 @@
         </is>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2383,7 +2431,7 @@
         </is>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -2411,7 +2459,7 @@
         </is>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>7</v>
@@ -2439,7 +2487,7 @@
         </is>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -2467,7 +2515,7 @@
         </is>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -2495,7 +2543,7 @@
         </is>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>4</v>
@@ -2523,7 +2571,7 @@
         </is>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>4</v>
@@ -2551,7 +2599,7 @@
         </is>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F81">
         <v>4</v>
@@ -2579,7 +2627,7 @@
         </is>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>4</v>
@@ -2607,7 +2655,7 @@
         </is>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2635,7 +2683,7 @@
         </is>
       </c>
       <c r="E84">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F84">
         <v>16</v>
@@ -2663,7 +2711,7 @@
         </is>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -2691,7 +2739,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -2719,7 +2767,7 @@
         </is>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -2747,7 +2795,7 @@
         </is>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -2775,7 +2823,7 @@
         </is>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -2803,7 +2851,7 @@
         </is>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -2831,7 +2879,7 @@
         </is>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>3</v>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -466,6 +466,12 @@
           <t>Identifies instances where participants express discomfort or unease towards rescue robots due to their human-like characteristics, including their imitation of nature, intimidating appearance, and how these traits might evoke feelings of unease.</t>
         </is>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -520,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +685,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -707,10 +713,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -735,7 +741,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -763,10 +769,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -790,6 +796,12 @@
           <t>Highlights physical and mental stamina in Human-Robot-Interaction, focusing on the importance of sustaining performance and functionality during prolonged rescue operations, without unnecessary details or quotes.</t>
         </is>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -869,10 +881,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -897,10 +909,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -925,7 +937,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -956,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -984,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1009,10 +1021,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1037,10 +1049,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1065,10 +1077,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1092,12 +1104,6 @@
           <t>Identifies concerns expressed about the susceptibility of rescue robots to hacking, emphasizing identifiable, factual dangers or vulnerabilities that could occur in real-world scenarios.</t>
         </is>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1149,7 +1155,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1177,10 +1183,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1205,10 +1211,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -1233,10 +1239,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1289,7 +1295,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -1317,10 +1323,10 @@
         </is>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1345,10 +1351,10 @@
         </is>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1373,10 +1379,10 @@
         </is>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1401,10 +1407,10 @@
         </is>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1429,7 +1435,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39">
         <v>22</v>
@@ -1457,10 +1463,10 @@
         </is>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1488,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1541,7 +1547,7 @@
         </is>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1572,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1596,12 +1602,6 @@
           <t>Identifies concerns and questions related to potential delays in the operational capabilities of rescue robots, particularly focusing on issues such as battery life, recharging times, and energy management.</t>
         </is>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1762,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -2067,10 +2067,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>5</v>
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="E67">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2347,10 +2347,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <v>2</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>4</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_complete.xlsx
@@ -380,12 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>soft</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
         </is>
       </c>
     </row>
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
         <v>18</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
         <v>3</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
         <v>10</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
         <v>2</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>9</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
         <v>2</v>
-      </c>
-      <c r="F30">
-        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31">
         <v>6</v>
-      </c>
-      <c r="F31">
-        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
         <v>2</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34">
         <v>6</v>
-      </c>
-      <c r="F34">
-        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
         <v>3</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
         <v>2</v>
-      </c>
-      <c r="F37">
-        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39">
         <v>6</v>
-      </c>
-      <c r="F39">
-        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
         <v>4</v>
-      </c>
-      <c r="F40">
-        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
         <v>6</v>
-      </c>
-      <c r="F41">
-        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="E42">
+        <v>23</v>
+      </c>
+      <c r="F42">
         <v>2</v>
-      </c>
-      <c r="F42">
-        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>2</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="F47">
         <v>4</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
         <v>2</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
         <v>2</v>
-      </c>
-      <c r="F51">
-        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
         <v>16</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
         <v>3</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2067,10 +2067,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
         <v>2</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
         <v>2</v>
-      </c>
-      <c r="F65">
-        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
         <v>24</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
         <v>3</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2347,10 +2347,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2403,10 +2403,10 @@
         </is>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="E84">
+        <v>22</v>
+      </c>
+      <c r="F84">
         <v>7</v>
-      </c>
-      <c r="F84">
-        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
         <v>2</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2767,10 +2767,10 @@
         </is>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
         <v>3</v>
-      </c>
-      <c r="F89">
-        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
